--- a/accounts.xlsx
+++ b/accounts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\naver_searchad_api\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AED9A8C-1364-4046-84A2-5BF3BF72C465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E8899F-2139-4CD8-8F6E-4174976E42A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{343BCD55-24DB-40A3-BB28-6EC14438406C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="57">
   <si>
     <t>업체명</t>
   </si>
@@ -117,6 +117,107 @@
   </si>
   <si>
     <t>미혜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>키들</t>
+  </si>
+  <si>
+    <t>청주오스코</t>
+  </si>
+  <si>
+    <t>리틀코리아</t>
+  </si>
+  <si>
+    <t>부성에이티</t>
+  </si>
+  <si>
+    <t>컨텍스쳐</t>
+  </si>
+  <si>
+    <t>오르비</t>
+  </si>
+  <si>
+    <t>아틀라시안</t>
+  </si>
+  <si>
+    <t>이유즈</t>
+  </si>
+  <si>
+    <t>수협보험</t>
+  </si>
+  <si>
+    <t>네모조명</t>
+  </si>
+  <si>
+    <t>아뜰리에구리</t>
+  </si>
+  <si>
+    <t>건우씨엔에스</t>
+  </si>
+  <si>
+    <t>IDS코리아</t>
+  </si>
+  <si>
+    <t>DB INC</t>
+  </si>
+  <si>
+    <t>생생어르신복지센터</t>
+  </si>
+  <si>
+    <t>알톤</t>
+  </si>
+  <si>
+    <t>더드림핑</t>
+  </si>
+  <si>
+    <t>한양패키지</t>
+  </si>
+  <si>
+    <t>펫츠비통</t>
+  </si>
+  <si>
+    <t>해피발스데이</t>
+  </si>
+  <si>
+    <t>휴앤고</t>
+  </si>
+  <si>
+    <t>굿데이 남북결혼</t>
+  </si>
+  <si>
+    <t>판타스틱코인노래방</t>
+  </si>
+  <si>
+    <t>머크코리아 1-1</t>
+  </si>
+  <si>
+    <t>머크코리아 2-1</t>
+  </si>
+  <si>
+    <t>머크코리아 3-1</t>
+  </si>
+  <si>
+    <t>머크코리아 GFA</t>
+  </si>
+  <si>
+    <t>한우이츠</t>
+  </si>
+  <si>
+    <t>일두</t>
+  </si>
+  <si>
+    <t>신한라이프케어</t>
+  </si>
+  <si>
+    <t>SK텔레콤</t>
+  </si>
+  <si>
+    <t>정인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>민아</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -513,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD8DF0E-B4B7-415A-A8DA-946DB4D6F0B8}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D18" sqref="D17:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -736,13 +837,365 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>3322328</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>1632478</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>3300114</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>207750</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>3113312</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>2404793</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>2026164</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>1340565</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>2760916</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>3217504</v>
+      </c>
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>2378803</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>3124482</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>222411</v>
+      </c>
+      <c r="C32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>1892757</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>2886394</v>
+      </c>
+      <c r="C34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>2697039</v>
+      </c>
+      <c r="C35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>1896906</v>
+      </c>
+      <c r="C36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>1800688</v>
+      </c>
+      <c r="C37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38">
+        <v>607620</v>
+      </c>
+      <c r="C38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39">
+        <v>4180383</v>
+      </c>
+      <c r="C39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>3536711</v>
+      </c>
+      <c r="C40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41">
+        <v>1281834</v>
+      </c>
+      <c r="C41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42">
+        <v>1836820</v>
+      </c>
+      <c r="C42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>2310274</v>
+      </c>
+      <c r="C43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>1875332</v>
+      </c>
+      <c r="C44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45">
+        <v>1254716</v>
+      </c>
+      <c r="C45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46">
+        <v>1593239</v>
+      </c>
+      <c r="C46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47">
+        <v>3671148</v>
+      </c>
+      <c r="C47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48">
+        <v>3459602</v>
+      </c>
+      <c r="C48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49">
+        <v>4005081</v>
+      </c>
+      <c r="C49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50">
+        <v>2901614</v>
+      </c>
+      <c r="C50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51">
+        <v>1711939</v>
+      </c>
+      <c r="C51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52">
+        <v>1725254</v>
+      </c>
+      <c r="C52" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/accounts.xlsx
+++ b/accounts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plano\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A73CD86-2932-4332-A1A5-5B3370305D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC2A41F-8F94-4816-B372-C4093DEC5EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{343BCD55-24DB-40A3-BB28-6EC14438406C}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$57</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="65">
   <si>
     <t>업체명</t>
   </si>
@@ -62,187 +62,196 @@
     <t>비에스대우글</t>
   </si>
   <si>
+    <t>HSW</t>
+  </si>
+  <si>
+    <t>욥</t>
+  </si>
+  <si>
+    <t>조인스페이</t>
+  </si>
+  <si>
+    <t>휴비즈넷</t>
+  </si>
+  <si>
+    <t>더마드라이</t>
+  </si>
+  <si>
+    <t>시공프로</t>
+  </si>
+  <si>
+    <t>포렌식스</t>
+  </si>
+  <si>
+    <t>최씨본가</t>
+  </si>
+  <si>
+    <t>골드앤</t>
+  </si>
+  <si>
+    <t>위드지스 서울숲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>커스텀 ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가이드맨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>더마드라이 GFA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>승훈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미혜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>키들</t>
+  </si>
+  <si>
+    <t>청주오스코</t>
+  </si>
+  <si>
+    <t>리틀코리아</t>
+  </si>
+  <si>
+    <t>부성에이티</t>
+  </si>
+  <si>
+    <t>컨텍스쳐</t>
+  </si>
+  <si>
+    <t>아틀라시안</t>
+  </si>
+  <si>
+    <t>이유즈</t>
+  </si>
+  <si>
+    <t>수협보험</t>
+  </si>
+  <si>
+    <t>네모조명</t>
+  </si>
+  <si>
+    <t>아뜰리에구리</t>
+  </si>
+  <si>
+    <t>건우씨엔에스</t>
+  </si>
+  <si>
+    <t>IDS코리아</t>
+  </si>
+  <si>
+    <t>DB INC</t>
+  </si>
+  <si>
+    <t>생생어르신복지센터</t>
+  </si>
+  <si>
+    <t>알톤</t>
+  </si>
+  <si>
+    <t>더드림핑</t>
+  </si>
+  <si>
+    <t>한양패키지</t>
+  </si>
+  <si>
+    <t>펫츠비통</t>
+  </si>
+  <si>
+    <t>해피발스데이</t>
+  </si>
+  <si>
+    <t>휴앤고</t>
+  </si>
+  <si>
+    <t>굿데이 남북결혼</t>
+  </si>
+  <si>
+    <t>판타스틱코인노래방</t>
+  </si>
+  <si>
+    <t>머크코리아 1-1</t>
+  </si>
+  <si>
+    <t>머크코리아 2-1</t>
+  </si>
+  <si>
+    <t>머크코리아 3-1</t>
+  </si>
+  <si>
+    <t>한우이츠</t>
+  </si>
+  <si>
+    <t>일두</t>
+  </si>
+  <si>
+    <t>신한라이프케어</t>
+  </si>
+  <si>
+    <t>SK텔레콤</t>
+  </si>
+  <si>
+    <t>정인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>민아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국카드시스템</t>
+  </si>
+  <si>
+    <t>더피플</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS H&amp;L 행정사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>속편한철거</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>크림미술학원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대성소파</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한우이츠 GFA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>승훈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>시종도어</t>
-  </si>
-  <si>
-    <t>HSW</t>
-  </si>
-  <si>
-    <t>욥</t>
-  </si>
-  <si>
-    <t>조인스페이</t>
-  </si>
-  <si>
-    <t>휴비즈넷</t>
-  </si>
-  <si>
-    <t>더마드라이</t>
-  </si>
-  <si>
-    <t>시공프로</t>
-  </si>
-  <si>
-    <t>포렌식스</t>
-  </si>
-  <si>
-    <t>최씨본가</t>
-  </si>
-  <si>
-    <t>골드앤</t>
-  </si>
-  <si>
-    <t>위드지스 서울숲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>커스텀 ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가이드맨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>더마드라이 GFA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>담당자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>승훈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미혜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>키들</t>
-  </si>
-  <si>
-    <t>청주오스코</t>
-  </si>
-  <si>
-    <t>리틀코리아</t>
-  </si>
-  <si>
-    <t>부성에이티</t>
-  </si>
-  <si>
-    <t>컨텍스쳐</t>
-  </si>
-  <si>
-    <t>아틀라시안</t>
-  </si>
-  <si>
-    <t>이유즈</t>
-  </si>
-  <si>
-    <t>수협보험</t>
-  </si>
-  <si>
-    <t>네모조명</t>
-  </si>
-  <si>
-    <t>아뜰리에구리</t>
-  </si>
-  <si>
-    <t>건우씨엔에스</t>
-  </si>
-  <si>
-    <t>IDS코리아</t>
-  </si>
-  <si>
-    <t>DB INC</t>
-  </si>
-  <si>
-    <t>생생어르신복지센터</t>
-  </si>
-  <si>
-    <t>알톤</t>
-  </si>
-  <si>
-    <t>더드림핑</t>
-  </si>
-  <si>
-    <t>한양패키지</t>
-  </si>
-  <si>
-    <t>펫츠비통</t>
-  </si>
-  <si>
-    <t>해피발스데이</t>
-  </si>
-  <si>
-    <t>휴앤고</t>
-  </si>
-  <si>
-    <t>굿데이 남북결혼</t>
-  </si>
-  <si>
-    <t>판타스틱코인노래방</t>
-  </si>
-  <si>
-    <t>머크코리아 1-1</t>
-  </si>
-  <si>
-    <t>머크코리아 2-1</t>
-  </si>
-  <si>
-    <t>머크코리아 3-1</t>
-  </si>
-  <si>
-    <t>한우이츠</t>
-  </si>
-  <si>
-    <t>일두</t>
-  </si>
-  <si>
-    <t>신한라이프케어</t>
-  </si>
-  <si>
-    <t>SK텔레콤</t>
-  </si>
-  <si>
-    <t>정인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>민아</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국카드시스템</t>
-  </si>
-  <si>
-    <t>더피플</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CS H&amp;L 행정사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>속편한철거</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>크림미술학원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대성소파</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한우이츠 GFA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시종도어 GFA</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -639,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD8DF0E-B4B7-415A-A8DA-946DB4D6F0B8}">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -656,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -670,7 +679,7 @@
         <v>3469289</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -681,7 +690,7 @@
         <v>420332</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -692,7 +701,7 @@
         <v>1346816</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -703,7 +712,7 @@
         <v>1973823</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -714,7 +723,7 @@
         <v>360788</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -725,216 +734,216 @@
         <v>3337700</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="B8">
         <v>2920327</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B9">
-        <v>464459</v>
+        <v>4008088</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>4107446</v>
+        <v>464459</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>366371</v>
+        <v>4107446</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>2886931</v>
+        <v>366371</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>1454161</v>
+        <v>2886931</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>3290345</v>
+        <v>1454161</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>2612915</v>
+        <v>3290345</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <v>3324981</v>
+        <v>2612915</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>3124325</v>
+        <v>3324981</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18">
-        <v>2924114</v>
+        <v>3124325</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>1454161</v>
+        <v>2924114</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>3322328</v>
+        <v>1454161</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>1632478</v>
+        <v>3322328</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B22">
-        <v>3300114</v>
+        <v>1632478</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>207750</v>
+        <v>3300114</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>3113312</v>
+        <v>207750</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>2404793</v>
+        <v>3113312</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>1617009</v>
+        <v>2404793</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -942,329 +951,340 @@
         <v>55</v>
       </c>
       <c r="B27">
-        <v>1319465</v>
+        <v>1617009</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B28">
-        <v>2694228</v>
+        <v>1319465</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B29">
-        <v>4165324</v>
+        <v>2694228</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B30">
-        <v>634844</v>
+        <v>4165324</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="B31">
-        <v>1340565</v>
+        <v>634844</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="B32">
-        <v>530852</v>
+        <v>1340565</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B33">
-        <v>2760916</v>
+        <v>530852</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B34">
-        <v>3217504</v>
+        <v>2760916</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B35">
-        <v>2378803</v>
+        <v>3217504</v>
       </c>
       <c r="C35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B36">
-        <v>3124482</v>
+        <v>2378803</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B37">
-        <v>222411</v>
+        <v>3124482</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B38">
-        <v>1892757</v>
+        <v>222411</v>
       </c>
       <c r="C38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B39">
-        <v>2886394</v>
+        <v>1892757</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B40">
-        <v>2697039</v>
+        <v>2886394</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B41">
-        <v>1229073</v>
+        <v>2697039</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B42">
-        <v>1800688</v>
+        <v>1229073</v>
       </c>
       <c r="C42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B43">
-        <v>607620</v>
+        <v>1800688</v>
       </c>
       <c r="C43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B44">
-        <v>4180383</v>
+        <v>607620</v>
       </c>
       <c r="C44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B45">
-        <v>3536711</v>
+        <v>4180383</v>
       </c>
       <c r="C45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B46">
-        <v>3076410</v>
+        <v>3536711</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B47">
-        <v>3370005</v>
+        <v>3076410</v>
       </c>
       <c r="C47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B48">
-        <v>2310274</v>
+        <v>3370005</v>
       </c>
       <c r="C48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B49">
-        <v>1875332</v>
+        <v>2310274</v>
       </c>
       <c r="C49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B50">
-        <v>3062481</v>
+        <v>1875332</v>
       </c>
       <c r="C50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B51">
-        <v>3259223</v>
+        <v>3062481</v>
       </c>
       <c r="C51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B52">
-        <v>3459602</v>
+        <v>3259223</v>
       </c>
       <c r="C52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B53">
-        <v>4005081</v>
+        <v>3459602</v>
       </c>
       <c r="C53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>2901614</v>
+        <v>4005081</v>
       </c>
       <c r="C54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B55">
-        <v>3325314</v>
+        <v>2901614</v>
       </c>
       <c r="C55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B56">
+        <v>3325314</v>
+      </c>
+      <c r="C56" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57">
         <v>607620</v>
       </c>
-      <c r="C56" t="s">
-        <v>54</v>
+      <c r="C57" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
